--- a/doc/历年全国报名人数.xlsx
+++ b/doc/历年全国报名人数.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>年份</t>
   </si>
@@ -45,13 +46,17 @@
     <t>录取人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -135,7 +140,7 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -420,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -468,7 +473,7 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="4">
-        <f>B2/D2</f>
+        <f t="shared" ref="F2:F26" si="0">B2/D2</f>
         <v>2.7142857142857144</v>
       </c>
     </row>
@@ -491,7 +496,7 @@
         <v>-4.7619047619047616E-2</v>
       </c>
       <c r="F3" s="4">
-        <f>B3/D3</f>
+        <f t="shared" si="0"/>
         <v>3.875</v>
       </c>
     </row>
@@ -503,18 +508,18 @@
         <v>204000</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C28" si="0">(B4-B3)/B3</f>
+        <f t="shared" ref="C4:C28" si="1">(B4-B3)/B3</f>
         <v>0.31612903225806449</v>
       </c>
       <c r="D4" s="2">
         <v>47000</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E26" si="1">(D4-D3)/D3</f>
+        <f t="shared" ref="E4:E26" si="2">(D4-D3)/D3</f>
         <v>0.17499999999999999</v>
       </c>
       <c r="F4" s="4">
-        <f>B4/D4</f>
+        <f t="shared" si="0"/>
         <v>4.3404255319148932</v>
       </c>
     </row>
@@ -526,18 +531,18 @@
         <v>242000</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18627450980392157</v>
       </c>
       <c r="D5" s="2">
         <v>51000</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5106382978723402E-2</v>
       </c>
       <c r="F5" s="4">
-        <f>B5/D5</f>
+        <f t="shared" si="0"/>
         <v>4.7450980392156863</v>
       </c>
     </row>
@@ -549,18 +554,18 @@
         <v>274000</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13223140495867769</v>
       </c>
       <c r="D6" s="2">
         <v>58000</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13725490196078433</v>
       </c>
       <c r="F6" s="4">
-        <f>B6/D6</f>
+        <f t="shared" si="0"/>
         <v>4.7241379310344831</v>
       </c>
     </row>
@@ -572,18 +577,18 @@
         <v>319000</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16423357664233576</v>
       </c>
       <c r="D7" s="2">
         <v>72000</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2413793103448276</v>
       </c>
       <c r="F7" s="4">
-        <f>B7/D7</f>
+        <f t="shared" si="0"/>
         <v>4.4305555555555554</v>
       </c>
     </row>
@@ -595,18 +600,18 @@
         <v>392000</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22884012539184953</v>
       </c>
       <c r="D8" s="2">
         <v>103000</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.43055555555555558</v>
       </c>
       <c r="F8" s="4">
-        <f>B8/D8</f>
+        <f t="shared" si="0"/>
         <v>3.8058252427184467</v>
       </c>
     </row>
@@ -618,18 +623,18 @@
         <v>460000</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17346938775510204</v>
       </c>
       <c r="D9" s="2">
         <v>133000</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29126213592233008</v>
       </c>
       <c r="F9" s="4">
-        <f>B9/D9</f>
+        <f t="shared" si="0"/>
         <v>3.4586466165413534</v>
       </c>
     </row>
@@ -641,18 +646,18 @@
         <v>624000</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35652173913043478</v>
       </c>
       <c r="D10" s="2">
         <v>164000</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23308270676691728</v>
       </c>
       <c r="F10" s="4">
-        <f>B10/D10</f>
+        <f t="shared" si="0"/>
         <v>3.8048780487804876</v>
       </c>
     </row>
@@ -664,18 +669,18 @@
         <v>797000</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27724358974358976</v>
       </c>
       <c r="D11" s="2">
         <v>220000</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34146341463414637</v>
       </c>
       <c r="F11" s="4">
-        <f>B11/D11</f>
+        <f t="shared" si="0"/>
         <v>3.6227272727272726</v>
       </c>
     </row>
@@ -687,18 +692,18 @@
         <v>945000</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18569636135508155</v>
       </c>
       <c r="D12" s="2">
         <v>273000</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24090909090909091</v>
       </c>
       <c r="F12" s="4">
-        <f>B12/D12</f>
+        <f t="shared" si="0"/>
         <v>3.4615384615384617</v>
       </c>
     </row>
@@ -710,18 +715,18 @@
         <v>1172000</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24021164021164021</v>
       </c>
       <c r="D13" s="2">
         <v>310000</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13553113553113552</v>
       </c>
       <c r="F13" s="4">
-        <f>B13/D13</f>
+        <f t="shared" si="0"/>
         <v>3.7806451612903227</v>
       </c>
     </row>
@@ -740,11 +745,11 @@
         <v>342000</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1032258064516129</v>
       </c>
       <c r="F14" s="4">
-        <f>B14/D14</f>
+        <f t="shared" si="0"/>
         <v>3.7169590643274852</v>
       </c>
     </row>
@@ -756,18 +761,18 @@
         <v>1282000</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4959093769666465E-3</v>
       </c>
       <c r="D15" s="2">
         <v>361000</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="F15" s="4">
-        <f>B15/D15</f>
+        <f t="shared" si="0"/>
         <v>3.5512465373961217</v>
       </c>
     </row>
@@ -779,18 +784,18 @@
         <v>1200000</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.3962558502340089E-2</v>
       </c>
       <c r="D16" s="2">
         <v>386000</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9252077562326875E-2</v>
       </c>
       <c r="F16" s="4">
-        <f>B16/D16</f>
+        <f t="shared" si="0"/>
         <v>3.1088082901554404</v>
       </c>
     </row>
@@ -802,18 +807,18 @@
         <v>1246000</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.833333333333333E-2</v>
       </c>
       <c r="D17" s="2">
         <v>449000</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16321243523316062</v>
       </c>
       <c r="F17" s="4">
-        <f>B17/D17</f>
+        <f t="shared" si="0"/>
         <v>2.7750556792873051</v>
       </c>
     </row>
@@ -825,18 +830,18 @@
         <v>1406000</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12841091492776885</v>
       </c>
       <c r="D18" s="2">
         <v>474400</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6570155902004454E-2</v>
       </c>
       <c r="F18" s="4">
-        <f>B18/D18</f>
+        <f t="shared" si="0"/>
         <v>2.963743676222597</v>
       </c>
     </row>
@@ -848,18 +853,18 @@
         <v>1511000</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4679943100995738E-2</v>
       </c>
       <c r="D19" s="2">
         <v>494600</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2580101180438451E-2</v>
       </c>
       <c r="F19" s="4">
-        <f>B19/D19</f>
+        <f t="shared" si="0"/>
         <v>3.054993934492519</v>
       </c>
     </row>
@@ -871,18 +876,18 @@
         <v>1656000</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5962938451356714E-2</v>
       </c>
       <c r="D20" s="2">
         <v>521300</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3983016579053779E-2</v>
       </c>
       <c r="F20" s="4">
-        <f>B20/D20</f>
+        <f t="shared" si="0"/>
         <v>3.1766737003644736</v>
       </c>
     </row>
@@ -894,18 +899,18 @@
         <v>1760000</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.280193236714976E-2</v>
       </c>
       <c r="D21" s="2">
         <v>540900</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7598311912526376E-2</v>
       </c>
       <c r="F21" s="4">
-        <f>B21/D21</f>
+        <f t="shared" si="0"/>
         <v>3.2538361989277131</v>
       </c>
     </row>
@@ -917,18 +922,18 @@
         <v>1720000</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.2727272727272728E-2</v>
       </c>
       <c r="D22" s="2">
         <v>548700</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4420410427066E-2</v>
       </c>
       <c r="F22" s="4">
-        <f>B22/D22</f>
+        <f t="shared" si="0"/>
         <v>3.1346819755786406</v>
       </c>
     </row>
@@ -940,18 +945,18 @@
         <v>1649000</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.1279069767441862E-2</v>
       </c>
       <c r="D23" s="2">
         <v>570600</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9912520503007108E-2</v>
       </c>
       <c r="F23" s="4">
-        <f>B23/D23</f>
+        <f t="shared" si="0"/>
         <v>2.8899404135997195</v>
       </c>
     </row>
@@ -963,18 +968,18 @@
         <v>1770000</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3377804730139481E-2</v>
       </c>
       <c r="D24" s="2">
         <v>589800</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3648790746582544E-2</v>
       </c>
       <c r="F24" s="4">
-        <f>B24/D24</f>
+        <f t="shared" si="0"/>
         <v>3.0010172939979656</v>
       </c>
     </row>
@@ -993,11 +998,11 @@
         <v>722200</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22448287555103424</v>
       </c>
       <c r="F25" s="4">
-        <f>B25/D25</f>
+        <f t="shared" si="0"/>
         <v>2.7831625588479647</v>
       </c>
     </row>
@@ -1009,18 +1014,18 @@
         <v>2380000</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18407960199004975</v>
       </c>
       <c r="D26" s="2">
         <v>762500</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5801716975906954E-2</v>
       </c>
       <c r="F26" s="4">
-        <f>B26/D26</f>
+        <f t="shared" si="0"/>
         <v>3.1213114754098359</v>
       </c>
     </row>
@@ -1032,7 +1037,7 @@
         <v>2900000</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21848739495798319</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1051,7 +1056,7 @@
         <v>3410000</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17586206896551723</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1070,4 +1075,616 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y12" activeCellId="1" sqref="AB6 Y12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="28" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1994</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1995</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1996</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1997</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1998</v>
+      </c>
+      <c r="G1" s="2">
+        <v>1999</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2001</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2002</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2003</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2004</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2005</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2006</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2007</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2008</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2010</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2011</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2012</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>2017</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>2018</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2019</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>114000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>155000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>204000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>242000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>274000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>319000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>392000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>460000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>624000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>797000</v>
+      </c>
+      <c r="L2" s="2">
+        <v>945000</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1172000</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1271200</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1282000</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1246000</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1406000</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1511000</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1656000</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1760000</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1720000</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1649000</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1770000</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>2010000</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>2380000</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>2900000</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>3410000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <f>(C2-B2)/B2</f>
+        <v>0.35964912280701755</v>
+      </c>
+      <c r="D3" s="3">
+        <f>(D2-C2)/C2</f>
+        <v>0.31612903225806449</v>
+      </c>
+      <c r="E3" s="3">
+        <f>(E2-D2)/D2</f>
+        <v>0.18627450980392157</v>
+      </c>
+      <c r="F3" s="3">
+        <f>(F2-E2)/E2</f>
+        <v>0.13223140495867769</v>
+      </c>
+      <c r="G3" s="3">
+        <f>(G2-F2)/F2</f>
+        <v>0.16423357664233576</v>
+      </c>
+      <c r="H3" s="3">
+        <f>(H2-G2)/G2</f>
+        <v>0.22884012539184953</v>
+      </c>
+      <c r="I3" s="3">
+        <f>(I2-H2)/H2</f>
+        <v>0.17346938775510204</v>
+      </c>
+      <c r="J3" s="3">
+        <f>(J2-I2)/I2</f>
+        <v>0.35652173913043478</v>
+      </c>
+      <c r="K3" s="3">
+        <f>(K2-J2)/J2</f>
+        <v>0.27724358974358976</v>
+      </c>
+      <c r="L3" s="3">
+        <f>(L2-K2)/K2</f>
+        <v>0.18569636135508155</v>
+      </c>
+      <c r="M3" s="3">
+        <f>(M2-L2)/L2</f>
+        <v>0.24021164021164021</v>
+      </c>
+      <c r="N3" s="3">
+        <f>(N2-M2)/M2</f>
+        <v>8.4641638225255972E-2</v>
+      </c>
+      <c r="O3" s="3">
+        <f>(O2-N2)/N2</f>
+        <v>8.4959093769666465E-3</v>
+      </c>
+      <c r="P3" s="3">
+        <f>(P2-O2)/O2</f>
+        <v>-6.3962558502340089E-2</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>(Q2-P2)/P2</f>
+        <v>3.833333333333333E-2</v>
+      </c>
+      <c r="R3" s="3">
+        <f>(R2-Q2)/Q2</f>
+        <v>0.12841091492776885</v>
+      </c>
+      <c r="S3" s="3">
+        <f>(S2-R2)/R2</f>
+        <v>7.4679943100995738E-2</v>
+      </c>
+      <c r="T3" s="3">
+        <f>(T2-S2)/S2</f>
+        <v>9.5962938451356714E-2</v>
+      </c>
+      <c r="U3" s="3">
+        <f>(U2-T2)/T2</f>
+        <v>6.280193236714976E-2</v>
+      </c>
+      <c r="V3" s="3">
+        <f>(V2-U2)/U2</f>
+        <v>-2.2727272727272728E-2</v>
+      </c>
+      <c r="W3" s="3">
+        <f>(W2-V2)/V2</f>
+        <v>-4.1279069767441862E-2</v>
+      </c>
+      <c r="X3" s="3">
+        <f>(X2-W2)/W2</f>
+        <v>7.3377804730139481E-2</v>
+      </c>
+      <c r="Y3" s="3">
+        <f>(Y2-X2)/X2</f>
+        <v>0.13559322033898305</v>
+      </c>
+      <c r="Z3" s="3">
+        <f>(Z2-Y2)/Y2</f>
+        <v>0.18407960199004975</v>
+      </c>
+      <c r="AA3" s="3">
+        <f>(AA2-Z2)/Z2</f>
+        <v>0.21848739495798319</v>
+      </c>
+      <c r="AB3" s="3">
+        <f>(AB2-AA2)/AA2</f>
+        <v>0.17586206896551723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>40000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>47000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>51000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>58000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>72000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>103000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>133000</v>
+      </c>
+      <c r="J4" s="2">
+        <v>164000</v>
+      </c>
+      <c r="K4" s="2">
+        <v>220000</v>
+      </c>
+      <c r="L4" s="2">
+        <v>273000</v>
+      </c>
+      <c r="M4" s="2">
+        <v>310000</v>
+      </c>
+      <c r="N4" s="2">
+        <v>342000</v>
+      </c>
+      <c r="O4" s="2">
+        <v>361000</v>
+      </c>
+      <c r="P4" s="2">
+        <v>386000</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>449000</v>
+      </c>
+      <c r="R4" s="2">
+        <v>474400</v>
+      </c>
+      <c r="S4" s="2">
+        <v>494600</v>
+      </c>
+      <c r="T4" s="2">
+        <v>521300</v>
+      </c>
+      <c r="U4" s="2">
+        <v>540900</v>
+      </c>
+      <c r="V4" s="2">
+        <v>548700</v>
+      </c>
+      <c r="W4" s="2">
+        <v>570600</v>
+      </c>
+      <c r="X4" s="2">
+        <v>589800</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>722200</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>762500</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <f>(C4-B4)/B4</f>
+        <v>-4.7619047619047616E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <f>(D4-C4)/C4</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <f>(E4-D4)/D4</f>
+        <v>8.5106382978723402E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <f>(F4-E4)/E4</f>
+        <v>0.13725490196078433</v>
+      </c>
+      <c r="G5" s="3">
+        <f>(G4-F4)/F4</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="H5" s="3">
+        <f>(H4-G4)/G4</f>
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I5" s="3">
+        <f>(I4-H4)/H4</f>
+        <v>0.29126213592233008</v>
+      </c>
+      <c r="J5" s="3">
+        <f>(J4-I4)/I4</f>
+        <v>0.23308270676691728</v>
+      </c>
+      <c r="K5" s="3">
+        <f>(K4-J4)/J4</f>
+        <v>0.34146341463414637</v>
+      </c>
+      <c r="L5" s="3">
+        <f>(L4-K4)/K4</f>
+        <v>0.24090909090909091</v>
+      </c>
+      <c r="M5" s="3">
+        <f>(M4-L4)/L4</f>
+        <v>0.13553113553113552</v>
+      </c>
+      <c r="N5" s="3">
+        <f>(N4-M4)/M4</f>
+        <v>0.1032258064516129</v>
+      </c>
+      <c r="O5" s="3">
+        <f>(O4-N4)/N4</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="P5" s="3">
+        <f>(P4-O4)/O4</f>
+        <v>6.9252077562326875E-2</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>(Q4-P4)/P4</f>
+        <v>0.16321243523316062</v>
+      </c>
+      <c r="R5" s="3">
+        <f>(R4-Q4)/Q4</f>
+        <v>5.6570155902004454E-2</v>
+      </c>
+      <c r="S5" s="3">
+        <f>(S4-R4)/R4</f>
+        <v>4.2580101180438451E-2</v>
+      </c>
+      <c r="T5" s="3">
+        <f>(T4-S4)/S4</f>
+        <v>5.3983016579053779E-2</v>
+      </c>
+      <c r="U5" s="3">
+        <f>(U4-T4)/T4</f>
+        <v>3.7598311912526376E-2</v>
+      </c>
+      <c r="V5" s="3">
+        <f>(V4-U4)/U4</f>
+        <v>1.4420410427066E-2</v>
+      </c>
+      <c r="W5" s="3">
+        <f>(W4-V4)/V4</f>
+        <v>3.9912520503007108E-2</v>
+      </c>
+      <c r="X5" s="3">
+        <f>(X4-W4)/W4</f>
+        <v>3.3648790746582544E-2</v>
+      </c>
+      <c r="Y5" s="3">
+        <f>(Y4-X4)/X4</f>
+        <v>0.22448287555103424</v>
+      </c>
+      <c r="Z5" s="3">
+        <f>(Z4-Y4)/Y4</f>
+        <v>5.5801716975906954E-2</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <f>B2/B4</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="C6" s="4">
+        <f>C2/C4</f>
+        <v>3.875</v>
+      </c>
+      <c r="D6" s="4">
+        <f>D2/D4</f>
+        <v>4.3404255319148932</v>
+      </c>
+      <c r="E6" s="4">
+        <f>E2/E4</f>
+        <v>4.7450980392156863</v>
+      </c>
+      <c r="F6" s="4">
+        <f>F2/F4</f>
+        <v>4.7241379310344831</v>
+      </c>
+      <c r="G6" s="4">
+        <f>G2/G4</f>
+        <v>4.4305555555555554</v>
+      </c>
+      <c r="H6" s="4">
+        <f>H2/H4</f>
+        <v>3.8058252427184467</v>
+      </c>
+      <c r="I6" s="4">
+        <f>I2/I4</f>
+        <v>3.4586466165413534</v>
+      </c>
+      <c r="J6" s="4">
+        <f>J2/J4</f>
+        <v>3.8048780487804876</v>
+      </c>
+      <c r="K6" s="4">
+        <f>K2/K4</f>
+        <v>3.6227272727272726</v>
+      </c>
+      <c r="L6" s="4">
+        <f>L2/L4</f>
+        <v>3.4615384615384617</v>
+      </c>
+      <c r="M6" s="4">
+        <f>M2/M4</f>
+        <v>3.7806451612903227</v>
+      </c>
+      <c r="N6" s="4">
+        <f>N2/N4</f>
+        <v>3.7169590643274852</v>
+      </c>
+      <c r="O6" s="4">
+        <f>O2/O4</f>
+        <v>3.5512465373961217</v>
+      </c>
+      <c r="P6" s="4">
+        <f>P2/P4</f>
+        <v>3.1088082901554404</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>Q2/Q4</f>
+        <v>2.7750556792873051</v>
+      </c>
+      <c r="R6" s="4">
+        <f>R2/R4</f>
+        <v>2.963743676222597</v>
+      </c>
+      <c r="S6" s="4">
+        <f>S2/S4</f>
+        <v>3.054993934492519</v>
+      </c>
+      <c r="T6" s="4">
+        <f>T2/T4</f>
+        <v>3.1766737003644736</v>
+      </c>
+      <c r="U6" s="4">
+        <f>U2/U4</f>
+        <v>3.2538361989277131</v>
+      </c>
+      <c r="V6" s="4">
+        <f>V2/V4</f>
+        <v>3.1346819755786406</v>
+      </c>
+      <c r="W6" s="4">
+        <f>W2/W4</f>
+        <v>2.8899404135997195</v>
+      </c>
+      <c r="X6" s="4">
+        <f>X2/X4</f>
+        <v>3.0010172939979656</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>Y2/Y4</f>
+        <v>2.7831625588479647</v>
+      </c>
+      <c r="Z6" s="4">
+        <f>Z2/Z4</f>
+        <v>3.1213114754098359</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>